--- a/biology/Zoologie/L'Île_sur_le_toit_du_monde/L'Île_sur_le_toit_du_monde.xlsx
+++ b/biology/Zoologie/L'Île_sur_le_toit_du_monde/L'Île_sur_le_toit_du_monde.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%27%C3%8Ele_sur_le_toit_du_monde</t>
+          <t>L'Île_sur_le_toit_du_monde</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Île sur le toit du monde (The Island at the Top of the World) est un film d'aventures américain réalisé par Robert Stevenson et sorti en 1974.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%27%C3%8Ele_sur_le_toit_du_monde</t>
+          <t>L'Île_sur_le_toit_du_monde</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1907, une équipe d'aventuriers menée et financée par Sir Anthony Ross part à la découverte d'une île non répertoriée dans le grand nord polaire. Pour sir Antony Ross, le but de cette expédition est de retrouver son fils disparu lors d'une précédente expédition. Pour cela, ils vont utiliser l'Hyperion, un ballon dirigeable conçu par le capitaine Brieux.
 En atteignant l'île perdue, ils découvrent des vallées verdoyantes en raison du volcanisme et une colonie viking vivant en autarcie depuis des siècles.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>L%27%C3%8Ele_sur_le_toit_du_monde</t>
+          <t>L'Île_sur_le_toit_du_monde</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Titre original : The Island at the Top of the World
 Titre français : L'Île sur le toit du monde
@@ -557,7 +573,7 @@
 Coiffures : La Rue Matheron
 Photographie : Frank V. Phillips, Robert D. McBride (assistant caméra)
 Effets spéciaux : Peter Ellenshaw, Art Cruickshank, Danny Lee, Chuck Gaspar, Hans Metz, Mike Reedy (technicien)
-Maquettes : Carl Boles, Terry Saunders[1]
+Maquettes : Carl Boles, Terry Saunders
 Son : Herb Taylor (supervision) et Dean Thomas (mixage)
 Montage : Robert Stafford (film), Evelyn Kennedy (sonore)
 Musique : Maurice Jarre
@@ -574,7 +590,7 @@
  Royaume-Uni : 16 décembre 1974
  États-Unis : 20 décembre 1974
  France : 29 octobre 1975
-Sauf mention contraire, les informations proviennent des sources suivantes : Leonard Maltin[2], Dave Smith[3], Mark Arnold[4], IMDb[5]
+Sauf mention contraire, les informations proviennent des sources suivantes : Leonard Maltin, Dave Smith, Mark Arnold, IMDb
 </t>
         </is>
       </c>
@@ -585,7 +601,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>L%27%C3%8Ele_sur_le_toit_du_monde</t>
+          <t>L'Île_sur_le_toit_du_monde</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -603,7 +619,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 David Hartman (VF : Jean-Claude Michel) : le professeur Ivarsson
@@ -627,7 +645,7 @@
 Ian Abercrombie (VF : Bernard Musson) : conducteur du train
 Jackson Bostwick : Pilote
 Herman Poppe : sentinelle
-Source VO : Leonard Maltin[2], Dave Smith[3], Mark Arnold[4] et IMDb[5]
+Source VO : Leonard Maltin, Dave Smith, Mark Arnold et IMDb
 </t>
         </is>
       </c>
@@ -638,7 +656,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>L%27%C3%8Ele_sur_le_toit_du_monde</t>
+          <t>L'Île_sur_le_toit_du_monde</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -656,9 +674,11 @@
           <t>Sorties cinéma</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sauf mention contraire, les informations suivantes sont issues de l'Internet Movie Database[6].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sauf mention contraire, les informations suivantes sont issues de l'Internet Movie Database.
 Royaume-Uni : 16 décembre 1974 ; 19 décembre 1974 (Londres)
 États-Unis : 20 décembre 1974
 Japon : 15 mars 1975
@@ -683,7 +703,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>L%27%C3%8Ele_sur_le_toit_du_monde</t>
+          <t>L'Île_sur_le_toit_du_monde</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -701,10 +721,12 @@
           <t>Origine et production</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le film est adapté du roman The Lost Ones d'Ian Cameron[3]. Les premières esquisses de L'Île sur le toit du monde datent de 1968 comme l'atteste un documentaire des coulisses de production daté de cette époque narré par Winston Hibler[7]. L'année 1907 a été choisie comme période de l'action pour avoir la présence de l'explorateur Robert Peary et car à l'époque seul un engin volant pouvait rejoindre l'Arctique[8]. Le design du dirigeable Hyperion est lui une émanation de la liberté artistique[8]. Une marquette de 220 pieds (67 m) du dirigeable motorisée a été construite grâce à un important budget alloué au film[3]. De même un village Viking avec un temple en pierre de lave a été reconstitué et des cordes en fibre de noix de coco de 850 pieds (259 m) ont été fabriquée en Égypte pour réaliser un pont suspendu[3]. Le tournage à Balestrand en Norvège a nécessité la reconstitution d'un bateau viking[3]. Le compositeur français Maurice Jarre a été engagé pour réaliser la musique du film qui s'éloigne des productions Disney[3],[8].
-Les effets spéciaux sont l'œuvre de Peter Ellenshaw, Art Cruickshank et Danny Lee[3]. Certains effets spéciaux visuels ont été appliqués quotidiennement et les documentaires de tournage attestent leurs usages de juillet 1972 à janvier 1974[8]. Les décors sont basés sur de nombreux endroits du cercle arctique depuis l'Alaska à la Norvège en passant par le Groenland[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film est adapté du roman The Lost Ones d'Ian Cameron. Les premières esquisses de L'Île sur le toit du monde datent de 1968 comme l'atteste un documentaire des coulisses de production daté de cette époque narré par Winston Hibler. L'année 1907 a été choisie comme période de l'action pour avoir la présence de l'explorateur Robert Peary et car à l'époque seul un engin volant pouvait rejoindre l'Arctique. Le design du dirigeable Hyperion est lui une émanation de la liberté artistique. Une marquette de 220 pieds (67 m) du dirigeable motorisée a été construite grâce à un important budget alloué au film. De même un village Viking avec un temple en pierre de lave a été reconstitué et des cordes en fibre de noix de coco de 850 pieds (259 m) ont été fabriquée en Égypte pour réaliser un pont suspendu. Le tournage à Balestrand en Norvège a nécessité la reconstitution d'un bateau viking. Le compositeur français Maurice Jarre a été engagé pour réaliser la musique du film qui s'éloigne des productions Disney,.
+Les effets spéciaux sont l'œuvre de Peter Ellenshaw, Art Cruickshank et Danny Lee. Certains effets spéciaux visuels ont été appliqués quotidiennement et les documentaires de tournage attestent leurs usages de juillet 1972 à janvier 1974. Les décors sont basés sur de nombreux endroits du cercle arctique depuis l'Alaska à la Norvège en passant par le Groenland.
 </t>
         </is>
       </c>
@@ -715,7 +737,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>L%27%C3%8Ele_sur_le_toit_du_monde</t>
+          <t>L'Île_sur_le_toit_du_monde</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -733,14 +755,16 @@
           <t>Sortie et accueil</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le film sort le 16 décembre 1974 au Royaume-Uni puis le 20 décembre 1974 aux États-Unis[3],[4]
-L'Île sur le toit du monde est accompagné d'une importante campagne publicitaire mais à l'instar de la production similaire Le Trou noir (1979) le résultat au box-office n'est pas celui attendu, ne récoltant que 10 millions d'USD aux États-Unis[8]. 
-Le film a été diffusé aux États-Unis avec le moyen métrage Winnie l'ourson et le Tigre fou[8],[9]. Une suite du film intitulée The Lost Ones avait été envisagé avant le mauvais résultat en salle[8].
-La sortie du film a été suivie d'une adaptation en bande dessinée dans le magazine Walt Disney Showcase publié en février 1975[10]. Durant la décennie, plusieurs projets d'attractions liés à des films sont envisagés mais les mauvais résultats des films en question mettent un terme à ces projets[11]. David Koenig évoque Robin des Bois (1973), L'Île sur le toit du monde (1974), Le Trou noir (1979), mais aussi Tron (1982)[11].
-Le DVD du film comporte le documentaire réalisé en 1968 avec esquisses de productions et allongé en 1974[7]. Le documentaire promotionnel de 1974 comporte une histoire de navires vikings en Arctique et la possibilité que les glaces aient conservé un navire[7]. Le film sort en vidéo en 1983 et 1994[3].
-Pour Mark Arnold, des productions comme L'Île sur le toit du monde ou Le Trou noir ont tué Walt Disney Productions dans sa forme d'alors[8]. Les effets spéciaux du film sont assez simples et comparables aux productions des autres studios, mais la sortie en 1977 de La Guerre des étoiles a placé le niveau beaucoup plus haut, empêchant les studios d'avoir recours à des films de moins bonne qualité[8].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film sort le 16 décembre 1974 au Royaume-Uni puis le 20 décembre 1974 aux États-Unis,
+L'Île sur le toit du monde est accompagné d'une importante campagne publicitaire mais à l'instar de la production similaire Le Trou noir (1979) le résultat au box-office n'est pas celui attendu, ne récoltant que 10 millions d'USD aux États-Unis. 
+Le film a été diffusé aux États-Unis avec le moyen métrage Winnie l'ourson et le Tigre fou,. Une suite du film intitulée The Lost Ones avait été envisagé avant le mauvais résultat en salle.
+La sortie du film a été suivie d'une adaptation en bande dessinée dans le magazine Walt Disney Showcase publié en février 1975. Durant la décennie, plusieurs projets d'attractions liés à des films sont envisagés mais les mauvais résultats des films en question mettent un terme à ces projets. David Koenig évoque Robin des Bois (1973), L'Île sur le toit du monde (1974), Le Trou noir (1979), mais aussi Tron (1982).
+Le DVD du film comporte le documentaire réalisé en 1968 avec esquisses de productions et allongé en 1974. Le documentaire promotionnel de 1974 comporte une histoire de navires vikings en Arctique et la possibilité que les glaces aient conservé un navire. Le film sort en vidéo en 1983 et 1994.
+Pour Mark Arnold, des productions comme L'Île sur le toit du monde ou Le Trou noir ont tué Walt Disney Productions dans sa forme d'alors. Les effets spéciaux du film sont assez simples et comparables aux productions des autres studios, mais la sortie en 1977 de La Guerre des étoiles a placé le niveau beaucoup plus haut, empêchant les studios d'avoir recours à des films de moins bonne qualité.
 </t>
         </is>
       </c>
@@ -751,7 +775,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>L%27%C3%8Ele_sur_le_toit_du_monde</t>
+          <t>L'Île_sur_le_toit_du_monde</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -769,7 +793,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ (en) Paul M. Sammon, « Inside The Black Hole », Cinefantastique, vol. 9, nos 3-4,‎ printemps 1980, p. 12 (lire en ligne, consulté le 19 février 2022)
